--- a/yard-signs-real-estate.xlsx
+++ b/yard-signs-real-estate.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD2E0AF-5BFC-4E0E-A7F1-AA85539563BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DBE781-D688-4672-8E2D-CF138436ACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10590" activeTab="1" xr2:uid="{30B8B317-2CED-4643-8C05-4CF442FB72AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10590" activeTab="2" xr2:uid="{30B8B317-2CED-4643-8C05-4CF442FB72AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
     <sheet name="Display Options" sheetId="2" r:id="rId2"/>
+    <sheet name="Printed Side" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="10">
   <si>
     <t>Sign Only</t>
   </si>
@@ -63,6 +64,9 @@
   </si>
   <si>
     <t>Sign + Ground Stake</t>
+  </si>
+  <si>
+    <t>Front and Back</t>
   </si>
 </sst>
 </file>
@@ -416,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F9E5E9-5AE0-427E-A094-4B14997DEEE7}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -2267,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8639B9DC-ACA9-4333-85CA-11526A042886}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:J121"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5936,4 +5940,3679 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A6172C-1C0F-4DB1-8032-E70C6304942F}">
+  <dimension ref="A1:J118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:J118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>23.57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>41.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>58.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>74.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>82.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>89.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>112.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>115.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>121.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>128.30000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>135.52000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>142.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>149.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>157.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>164.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>171.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>178.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>186.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>193.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>200.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>207.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <v>214.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>229.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>230.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>231.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>232.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>233.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>234.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>235.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>236.56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>237.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>238.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>239.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>240.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <v>241.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>242.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>243.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40">
+        <v>244.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>245.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>246.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <v>247.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <v>248.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>249.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <v>250.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>251.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>252.88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>253.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>254.92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>60</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>298.26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>341.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>384.94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>90</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>428.28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <v>471.62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>250</v>
+      </c>
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <v>1179.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>500</v>
+      </c>
+      <c r="H57" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <v>2294.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62">
+        <v>35.68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>57.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64">
+        <v>80.510000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <v>103.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>126.83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>117.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>135.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69">
+        <v>153.47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>171.57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71">
+        <v>182.91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72">
+        <v>192.13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73">
+        <v>201.35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>210.57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <v>219.79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>229.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <v>238.23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <v>247.45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>18</v>
+      </c>
+      <c r="H79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>256.66000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>19</v>
+      </c>
+      <c r="H80" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80">
+        <v>265.88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81">
+        <v>275.10000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>284.32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83">
+        <v>293.54000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>23</v>
+      </c>
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84">
+        <v>302.76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85">
+        <v>311.98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86">
+        <v>321.19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87">
+        <v>322.62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88">
+        <v>324.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>28</v>
+      </c>
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <v>325.48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>29</v>
+      </c>
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90">
+        <v>326.91000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>30</v>
+      </c>
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91">
+        <v>328.33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92">
+        <v>329.76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>32</v>
+      </c>
+      <c r="H93" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93">
+        <v>331.19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>33</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94">
+        <v>332.62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>34</v>
+      </c>
+      <c r="H95" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95">
+        <v>334.04</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>35</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96">
+        <v>335.47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>36</v>
+      </c>
+      <c r="H97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97">
+        <v>336.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>37</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98">
+        <v>338.33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>38</v>
+      </c>
+      <c r="H99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99" t="s">
+        <v>7</v>
+      </c>
+      <c r="J99">
+        <v>339.76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100">
+        <v>341.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101">
+        <v>40</v>
+      </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101" t="s">
+        <v>7</v>
+      </c>
+      <c r="J101">
+        <v>342.61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>41</v>
+      </c>
+      <c r="H102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102">
+        <v>344.04</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <v>42</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+      <c r="I103" t="s">
+        <v>7</v>
+      </c>
+      <c r="J103">
+        <v>345.47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104">
+        <v>43</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104">
+        <v>346.89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>44</v>
+      </c>
+      <c r="H105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105">
+        <v>348.32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106">
+        <v>349.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107" t="s">
+        <v>7</v>
+      </c>
+      <c r="J107">
+        <v>351.18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108">
+        <v>47</v>
+      </c>
+      <c r="H108" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108">
+        <v>352.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109">
+        <v>48</v>
+      </c>
+      <c r="H109" t="s">
+        <v>6</v>
+      </c>
+      <c r="I109" t="s">
+        <v>7</v>
+      </c>
+      <c r="J109">
+        <v>354.03</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110">
+        <v>49</v>
+      </c>
+      <c r="H110" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110">
+        <v>355.46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111">
+        <v>50</v>
+      </c>
+      <c r="H111" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <v>356.88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112">
+        <v>60</v>
+      </c>
+      <c r="H112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112" t="s">
+        <v>7</v>
+      </c>
+      <c r="J112">
+        <v>417.56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113">
+        <v>70</v>
+      </c>
+      <c r="H113" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113">
+        <v>478.24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114">
+        <v>538.91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115">
+        <v>90</v>
+      </c>
+      <c r="H115" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115" t="s">
+        <v>7</v>
+      </c>
+      <c r="J115">
+        <v>599.59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" t="s">
+        <v>7</v>
+      </c>
+      <c r="J116">
+        <v>660.26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117">
+        <v>250</v>
+      </c>
+      <c r="H117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" t="s">
+        <v>7</v>
+      </c>
+      <c r="J117">
+        <v>1179.04</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118">
+        <v>500</v>
+      </c>
+      <c r="H118" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118">
+        <v>2294.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/yard-signs-real-estate.xlsx
+++ b/yard-signs-real-estate.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DBE781-D688-4672-8E2D-CF138436ACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D902CC3-A4FB-4F2D-89E2-293A1BD59893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10590" activeTab="2" xr2:uid="{30B8B317-2CED-4643-8C05-4CF442FB72AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{30B8B317-2CED-4643-8C05-4CF442FB72AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
     <sheet name="Display Options" sheetId="2" r:id="rId2"/>
     <sheet name="Printed Side" sheetId="4" r:id="rId3"/>
+    <sheet name="Grommets" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="12">
   <si>
     <t>Sign Only</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>Front and Back</t>
+  </si>
+  <si>
+    <t>Two grommets on top</t>
+  </si>
+  <si>
+    <t>Grommet on each corner</t>
   </si>
 </sst>
 </file>
@@ -5946,7 +5953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A6172C-1C0F-4DB1-8032-E70C6304942F}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A62" sqref="A62:J118"/>
     </sheetView>
   </sheetViews>
@@ -9615,4 +9622,5503 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE93871D-2666-457B-88FF-925CCB670D28}">
+  <dimension ref="A1:J179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>23.57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>41.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>58.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>74.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>82.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>89.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>112.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>115.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>121.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>128.30000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>135.52000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>142.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>149.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>157.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>164.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>171.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>178.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>186.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>193.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>200.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>207.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <v>214.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>229.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>230.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>231.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>232.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>233.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>234.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>235.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>236.56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>237.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>238.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>239.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>240.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <v>241.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>242.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>243.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40">
+        <v>244.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>245.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>246.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <v>247.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <v>248.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>249.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <v>250.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>251.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>252.88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>253.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>254.92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>60</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>298.26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>341.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>384.94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>90</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>428.28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <v>471.62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>250</v>
+      </c>
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <v>1179.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>500</v>
+      </c>
+      <c r="H57" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <v>2294.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64">
+        <v>66.61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <v>86.16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>96.97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>106.16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>122.77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69">
+        <v>134.76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>141.41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71">
+        <v>149.33000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72">
+        <v>159.38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73">
+        <v>169.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>179.48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <v>189.52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>199.57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <v>209.62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <v>219.67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>18</v>
+      </c>
+      <c r="H79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>229.72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>19</v>
+      </c>
+      <c r="H80" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80">
+        <v>239.77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81">
+        <v>249.81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>259.86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83">
+        <v>269.91000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>23</v>
+      </c>
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84">
+        <v>279.95999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85">
+        <v>290.01</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86">
+        <v>300.06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87">
+        <v>303.89999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88">
+        <v>307.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>28</v>
+      </c>
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <v>311.58999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <v>29</v>
+      </c>
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90">
+        <v>315.44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <v>30</v>
+      </c>
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91">
+        <v>319.27999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92">
+        <v>323.13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>32</v>
+      </c>
+      <c r="H93" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93">
+        <v>326.97000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>33</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94">
+        <v>330.82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>34</v>
+      </c>
+      <c r="H95" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95">
+        <v>334.66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>35</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96">
+        <v>338.51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>36</v>
+      </c>
+      <c r="H97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97">
+        <v>342.35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>37</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98">
+        <v>346.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>38</v>
+      </c>
+      <c r="H99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99" t="s">
+        <v>7</v>
+      </c>
+      <c r="J99">
+        <v>350.04</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100">
+        <v>353.89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101">
+        <v>40</v>
+      </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101" t="s">
+        <v>7</v>
+      </c>
+      <c r="J101">
+        <v>357.73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <v>41</v>
+      </c>
+      <c r="H102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102">
+        <v>361.58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <v>42</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+      <c r="I103" t="s">
+        <v>7</v>
+      </c>
+      <c r="J103">
+        <v>365.42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104">
+        <v>43</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104">
+        <v>369.27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>44</v>
+      </c>
+      <c r="H105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105">
+        <v>373.11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106">
+        <v>376.96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107" t="s">
+        <v>7</v>
+      </c>
+      <c r="J107">
+        <v>380.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <v>47</v>
+      </c>
+      <c r="H108" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108">
+        <v>384.65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <v>48</v>
+      </c>
+      <c r="H109" t="s">
+        <v>6</v>
+      </c>
+      <c r="I109" t="s">
+        <v>7</v>
+      </c>
+      <c r="J109">
+        <v>388.49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>49</v>
+      </c>
+      <c r="H110" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110">
+        <v>392.34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>50</v>
+      </c>
+      <c r="H111" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <v>396.18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <v>60</v>
+      </c>
+      <c r="H112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112" t="s">
+        <v>7</v>
+      </c>
+      <c r="J112">
+        <v>467.77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <v>70</v>
+      </c>
+      <c r="H113" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113">
+        <v>539.37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114">
+        <v>610.96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115">
+        <v>90</v>
+      </c>
+      <c r="H115" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115" t="s">
+        <v>7</v>
+      </c>
+      <c r="J115">
+        <v>682.55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" t="s">
+        <v>7</v>
+      </c>
+      <c r="J116">
+        <v>754.15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>250</v>
+      </c>
+      <c r="H117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" t="s">
+        <v>7</v>
+      </c>
+      <c r="J117">
+        <v>1885.36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>500</v>
+      </c>
+      <c r="H118" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I124" t="s">
+        <v>7</v>
+      </c>
+      <c r="J124">
+        <v>44.24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125" t="s">
+        <v>7</v>
+      </c>
+      <c r="J125">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126">
+        <v>4</v>
+      </c>
+      <c r="H126" t="s">
+        <v>6</v>
+      </c>
+      <c r="I126" t="s">
+        <v>7</v>
+      </c>
+      <c r="J126">
+        <v>80.510000000000005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127">
+        <v>5</v>
+      </c>
+      <c r="H127" t="s">
+        <v>6</v>
+      </c>
+      <c r="I127" t="s">
+        <v>7</v>
+      </c>
+      <c r="J127">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128">
+        <v>6</v>
+      </c>
+      <c r="H128" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128">
+        <v>97.69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129">
+        <v>7</v>
+      </c>
+      <c r="H129" t="s">
+        <v>6</v>
+      </c>
+      <c r="I129" t="s">
+        <v>7</v>
+      </c>
+      <c r="J129">
+        <v>112.88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130">
+        <v>8</v>
+      </c>
+      <c r="H130" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" t="s">
+        <v>7</v>
+      </c>
+      <c r="J130">
+        <v>123.46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131">
+        <v>9</v>
+      </c>
+      <c r="H131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" t="s">
+        <v>7</v>
+      </c>
+      <c r="J131">
+        <v>128.69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132">
+        <v>10</v>
+      </c>
+      <c r="H132" t="s">
+        <v>6</v>
+      </c>
+      <c r="I132" t="s">
+        <v>7</v>
+      </c>
+      <c r="J132">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133">
+        <v>11</v>
+      </c>
+      <c r="H133" t="s">
+        <v>6</v>
+      </c>
+      <c r="I133" t="s">
+        <v>7</v>
+      </c>
+      <c r="J133">
+        <v>143.84</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>6</v>
+      </c>
+      <c r="I134" t="s">
+        <v>7</v>
+      </c>
+      <c r="J134">
+        <v>152.47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s">
+        <v>6</v>
+      </c>
+      <c r="I135" t="s">
+        <v>7</v>
+      </c>
+      <c r="J135">
+        <v>161.11000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>6</v>
+      </c>
+      <c r="I136" t="s">
+        <v>7</v>
+      </c>
+      <c r="J136">
+        <v>169.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137">
+        <v>15</v>
+      </c>
+      <c r="H137" t="s">
+        <v>6</v>
+      </c>
+      <c r="I137" t="s">
+        <v>7</v>
+      </c>
+      <c r="J137">
+        <v>178.38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138">
+        <v>16</v>
+      </c>
+      <c r="H138" t="s">
+        <v>6</v>
+      </c>
+      <c r="I138" t="s">
+        <v>7</v>
+      </c>
+      <c r="J138">
+        <v>187.02</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139">
+        <v>17</v>
+      </c>
+      <c r="H139" t="s">
+        <v>6</v>
+      </c>
+      <c r="I139" t="s">
+        <v>7</v>
+      </c>
+      <c r="J139">
+        <v>195.65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140">
+        <v>18</v>
+      </c>
+      <c r="H140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I140" t="s">
+        <v>7</v>
+      </c>
+      <c r="J140">
+        <v>204.29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141">
+        <v>19</v>
+      </c>
+      <c r="H141" t="s">
+        <v>6</v>
+      </c>
+      <c r="I141" t="s">
+        <v>7</v>
+      </c>
+      <c r="J141">
+        <v>212.93</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142">
+        <v>20</v>
+      </c>
+      <c r="H142" t="s">
+        <v>6</v>
+      </c>
+      <c r="I142" t="s">
+        <v>7</v>
+      </c>
+      <c r="J142">
+        <v>221.56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143">
+        <v>21</v>
+      </c>
+      <c r="H143" t="s">
+        <v>6</v>
+      </c>
+      <c r="I143" t="s">
+        <v>7</v>
+      </c>
+      <c r="J143">
+        <v>230.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144">
+        <v>22</v>
+      </c>
+      <c r="H144" t="s">
+        <v>6</v>
+      </c>
+      <c r="I144" t="s">
+        <v>7</v>
+      </c>
+      <c r="J144">
+        <v>238.83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145">
+        <v>23</v>
+      </c>
+      <c r="H145" t="s">
+        <v>6</v>
+      </c>
+      <c r="I145" t="s">
+        <v>7</v>
+      </c>
+      <c r="J145">
+        <v>247.47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146">
+        <v>24</v>
+      </c>
+      <c r="H146" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146" t="s">
+        <v>7</v>
+      </c>
+      <c r="J146">
+        <v>256.10000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147">
+        <v>25</v>
+      </c>
+      <c r="H147" t="s">
+        <v>6</v>
+      </c>
+      <c r="I147" t="s">
+        <v>7</v>
+      </c>
+      <c r="J147">
+        <v>264.74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>26</v>
+      </c>
+      <c r="H148" t="s">
+        <v>6</v>
+      </c>
+      <c r="I148" t="s">
+        <v>7</v>
+      </c>
+      <c r="J148">
+        <v>267.17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149">
+        <v>27</v>
+      </c>
+      <c r="H149" t="s">
+        <v>6</v>
+      </c>
+      <c r="I149" t="s">
+        <v>7</v>
+      </c>
+      <c r="J149">
+        <v>269.60000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>28</v>
+      </c>
+      <c r="H150" t="s">
+        <v>6</v>
+      </c>
+      <c r="I150" t="s">
+        <v>7</v>
+      </c>
+      <c r="J150">
+        <v>272.04000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151">
+        <v>29</v>
+      </c>
+      <c r="H151" t="s">
+        <v>6</v>
+      </c>
+      <c r="I151" t="s">
+        <v>7</v>
+      </c>
+      <c r="J151">
+        <v>274.47000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152">
+        <v>30</v>
+      </c>
+      <c r="H152" t="s">
+        <v>6</v>
+      </c>
+      <c r="I152" t="s">
+        <v>7</v>
+      </c>
+      <c r="J152">
+        <v>276.89999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153">
+        <v>31</v>
+      </c>
+      <c r="H153" t="s">
+        <v>6</v>
+      </c>
+      <c r="I153" t="s">
+        <v>7</v>
+      </c>
+      <c r="J153">
+        <v>279.33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154">
+        <v>32</v>
+      </c>
+      <c r="H154" t="s">
+        <v>6</v>
+      </c>
+      <c r="I154" t="s">
+        <v>7</v>
+      </c>
+      <c r="J154">
+        <v>281.77</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155">
+        <v>33</v>
+      </c>
+      <c r="H155" t="s">
+        <v>6</v>
+      </c>
+      <c r="I155" t="s">
+        <v>7</v>
+      </c>
+      <c r="J155">
+        <v>284.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156">
+        <v>34</v>
+      </c>
+      <c r="H156" t="s">
+        <v>6</v>
+      </c>
+      <c r="I156" t="s">
+        <v>7</v>
+      </c>
+      <c r="J156">
+        <v>286.63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157">
+        <v>35</v>
+      </c>
+      <c r="H157" t="s">
+        <v>6</v>
+      </c>
+      <c r="I157" t="s">
+        <v>7</v>
+      </c>
+      <c r="J157">
+        <v>289.06</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158">
+        <v>36</v>
+      </c>
+      <c r="H158" t="s">
+        <v>6</v>
+      </c>
+      <c r="I158" t="s">
+        <v>7</v>
+      </c>
+      <c r="J158">
+        <v>291.49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159">
+        <v>37</v>
+      </c>
+      <c r="H159" t="s">
+        <v>6</v>
+      </c>
+      <c r="I159" t="s">
+        <v>7</v>
+      </c>
+      <c r="J159">
+        <v>293.93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160">
+        <v>38</v>
+      </c>
+      <c r="H160" t="s">
+        <v>6</v>
+      </c>
+      <c r="I160" t="s">
+        <v>7</v>
+      </c>
+      <c r="J160">
+        <v>296.36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161">
+        <v>39</v>
+      </c>
+      <c r="H161" t="s">
+        <v>6</v>
+      </c>
+      <c r="I161" t="s">
+        <v>7</v>
+      </c>
+      <c r="J161">
+        <v>298.79000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162">
+        <v>40</v>
+      </c>
+      <c r="H162" t="s">
+        <v>6</v>
+      </c>
+      <c r="I162" t="s">
+        <v>7</v>
+      </c>
+      <c r="J162">
+        <v>301.22000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163">
+        <v>41</v>
+      </c>
+      <c r="H163" t="s">
+        <v>6</v>
+      </c>
+      <c r="I163" t="s">
+        <v>7</v>
+      </c>
+      <c r="J163">
+        <v>303.66000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164">
+        <v>42</v>
+      </c>
+      <c r="H164" t="s">
+        <v>6</v>
+      </c>
+      <c r="I164" t="s">
+        <v>7</v>
+      </c>
+      <c r="J164">
+        <v>306.08999999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165">
+        <v>43</v>
+      </c>
+      <c r="H165" t="s">
+        <v>6</v>
+      </c>
+      <c r="I165" t="s">
+        <v>7</v>
+      </c>
+      <c r="J165">
+        <v>308.52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166">
+        <v>44</v>
+      </c>
+      <c r="H166" t="s">
+        <v>6</v>
+      </c>
+      <c r="I166" t="s">
+        <v>7</v>
+      </c>
+      <c r="J166">
+        <v>310.95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167">
+        <v>45</v>
+      </c>
+      <c r="H167" t="s">
+        <v>6</v>
+      </c>
+      <c r="I167" t="s">
+        <v>7</v>
+      </c>
+      <c r="J167">
+        <v>313.39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168">
+        <v>46</v>
+      </c>
+      <c r="H168" t="s">
+        <v>6</v>
+      </c>
+      <c r="I168" t="s">
+        <v>7</v>
+      </c>
+      <c r="J168">
+        <v>315.82</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169">
+        <v>47</v>
+      </c>
+      <c r="H169" t="s">
+        <v>6</v>
+      </c>
+      <c r="I169" t="s">
+        <v>7</v>
+      </c>
+      <c r="J169">
+        <v>318.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170">
+        <v>48</v>
+      </c>
+      <c r="H170" t="s">
+        <v>6</v>
+      </c>
+      <c r="I170" t="s">
+        <v>7</v>
+      </c>
+      <c r="J170">
+        <v>320.68</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171">
+        <v>49</v>
+      </c>
+      <c r="H171" t="s">
+        <v>6</v>
+      </c>
+      <c r="I171" t="s">
+        <v>7</v>
+      </c>
+      <c r="J171">
+        <v>323.12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172">
+        <v>50</v>
+      </c>
+      <c r="H172" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" t="s">
+        <v>7</v>
+      </c>
+      <c r="J172">
+        <v>325.55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173">
+        <v>60</v>
+      </c>
+      <c r="H173" t="s">
+        <v>6</v>
+      </c>
+      <c r="I173" t="s">
+        <v>7</v>
+      </c>
+      <c r="J173">
+        <v>383.01</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174">
+        <v>70</v>
+      </c>
+      <c r="H174" t="s">
+        <v>6</v>
+      </c>
+      <c r="I174" t="s">
+        <v>7</v>
+      </c>
+      <c r="J174">
+        <v>440.48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175">
+        <v>80</v>
+      </c>
+      <c r="H175" t="s">
+        <v>6</v>
+      </c>
+      <c r="I175" t="s">
+        <v>7</v>
+      </c>
+      <c r="J175">
+        <v>497.95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>4</v>
+      </c>
+      <c r="F176" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176">
+        <v>90</v>
+      </c>
+      <c r="H176" t="s">
+        <v>6</v>
+      </c>
+      <c r="I176" t="s">
+        <v>7</v>
+      </c>
+      <c r="J176">
+        <v>555.41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177">
+        <v>100</v>
+      </c>
+      <c r="H177" t="s">
+        <v>6</v>
+      </c>
+      <c r="I177" t="s">
+        <v>7</v>
+      </c>
+      <c r="J177">
+        <v>612.88</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178">
+        <v>250</v>
+      </c>
+      <c r="H178" t="s">
+        <v>6</v>
+      </c>
+      <c r="I178" t="s">
+        <v>7</v>
+      </c>
+      <c r="J178">
+        <v>1532.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179">
+        <v>500</v>
+      </c>
+      <c r="H179" t="s">
+        <v>6</v>
+      </c>
+      <c r="I179" t="s">
+        <v>7</v>
+      </c>
+      <c r="J179">
+        <v>3000.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/yard-signs-real-estate.xlsx
+++ b/yard-signs-real-estate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D902CC3-A4FB-4F2D-89E2-293A1BD59893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C383D-3D67-4E14-848C-006759D5AC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{30B8B317-2CED-4643-8C05-4CF442FB72AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{30B8B317-2CED-4643-8C05-4CF442FB72AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="13">
   <si>
     <t>Sign Only</t>
   </si>
@@ -75,6 +75,9 @@
   <si>
     <t>Grommet on each corner</t>
   </si>
+  <si>
+    <t>,</t>
+  </si>
 </sst>
 </file>
 
@@ -89,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F9E5E9-5AE0-427E-A094-4B14997DEEE7}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,10 +452,11 @@
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,11 +484,21 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>23.57</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="str">
+        <f>_xlfn.CONCAT(G1,L1,K1,L1,K1,L1,J1)</f>
+        <v>1,0,0,23.57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -505,11 +526,21 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>41.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M57" si="0">_xlfn.CONCAT(G2,L2,K2,L2,K2,L2,J2)</f>
+        <v>2,0,0,41.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -537,11 +568,21 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>58.14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>3,0,0,58.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -569,11 +610,21 @@
       <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>74.86</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,0,0,74.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -601,11 +652,21 @@
       <c r="I5" t="s">
         <v>7</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>82.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>5,0,0,82.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -633,11 +694,21 @@
       <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>89.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>6,0,0,89.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -665,11 +736,21 @@
       <c r="I7" t="s">
         <v>7</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>102.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>7,0,0,102.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -697,11 +778,21 @@
       <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>112.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>8,0,0,112.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -729,11 +820,21 @@
       <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>115.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>9,0,0,115.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -761,11 +862,21 @@
       <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>121.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>10,0,0,121.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -793,11 +904,21 @@
       <c r="I11" t="s">
         <v>7</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>128.30000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>11,0,0,128.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -825,11 +946,21 @@
       <c r="I12" t="s">
         <v>7</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>135.52000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>12,0,0,135.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -857,11 +988,21 @@
       <c r="I13" t="s">
         <v>7</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>142.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>13,0,0,142.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -889,11 +1030,21 @@
       <c r="I14" t="s">
         <v>7</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>149.97</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>14,0,0,149.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -921,11 +1072,21 @@
       <c r="I15" t="s">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>157.19</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>15,0,0,157.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -953,11 +1114,21 @@
       <c r="I16" t="s">
         <v>7</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>164.42</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>16,0,0,164.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -985,11 +1156,21 @@
       <c r="I17" t="s">
         <v>7</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>171.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>17,0,0,171.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1017,11 +1198,21 @@
       <c r="I18" t="s">
         <v>7</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>178.86</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>18,0,0,178.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1049,11 +1240,21 @@
       <c r="I19" t="s">
         <v>7</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>186.09</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>19,0,0,186.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1081,11 +1282,21 @@
       <c r="I20" t="s">
         <v>7</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>193.31</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>20,0,0,193.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1113,11 +1324,21 @@
       <c r="I21" t="s">
         <v>7</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>200.53</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>21,0,0,200.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1145,11 +1366,21 @@
       <c r="I22" t="s">
         <v>7</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>207.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>22,0,0,207.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1177,11 +1408,21 @@
       <c r="I23" t="s">
         <v>7</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>214.98</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>23,0,0,214.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1209,11 +1450,21 @@
       <c r="I24" t="s">
         <v>7</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>222.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>24,0,0,222.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1241,11 +1492,21 @@
       <c r="I25" t="s">
         <v>7</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>229.42</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>25,0,0,229.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1273,11 +1534,21 @@
       <c r="I26" t="s">
         <v>7</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>230.44</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>26,0,0,230.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1305,11 +1576,21 @@
       <c r="I27" t="s">
         <v>7</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>231.46</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>27,0,0,231.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1337,11 +1618,21 @@
       <c r="I28" t="s">
         <v>7</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>232.48</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>28,0,0,232.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1369,11 +1660,21 @@
       <c r="I29" t="s">
         <v>7</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>233.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>29,0,0,233.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1401,11 +1702,21 @@
       <c r="I30" t="s">
         <v>7</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>234.52</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>30,0,0,234.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1433,11 +1744,21 @@
       <c r="I31" t="s">
         <v>7</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>235.54</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>31,0,0,235.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1465,11 +1786,21 @@
       <c r="I32" t="s">
         <v>7</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>236.56</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>32,0,0,236.56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1497,11 +1828,21 @@
       <c r="I33" t="s">
         <v>7</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>237.58</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>33,0,0,237.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1529,11 +1870,21 @@
       <c r="I34" t="s">
         <v>7</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>238.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>34,0,0,238.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1561,11 +1912,21 @@
       <c r="I35" t="s">
         <v>7</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>239.62</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>35,0,0,239.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1593,11 +1954,21 @@
       <c r="I36" t="s">
         <v>7</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>240.64</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>36,0,0,240.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1625,11 +1996,21 @@
       <c r="I37" t="s">
         <v>7</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>241.66</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>37,0,0,241.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1657,11 +2038,21 @@
       <c r="I38" t="s">
         <v>7</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>242.68</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>38,0,0,242.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1689,11 +2080,21 @@
       <c r="I39" t="s">
         <v>7</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1">
         <v>243.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v>39,0,0,243.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1721,11 +2122,21 @@
       <c r="I40" t="s">
         <v>7</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1">
         <v>244.72</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v>40,0,0,244.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1753,11 +2164,21 @@
       <c r="I41" t="s">
         <v>7</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1">
         <v>245.74</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v>41,0,0,245.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1785,11 +2206,21 @@
       <c r="I42" t="s">
         <v>7</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <v>246.76</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>42,0,0,246.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1817,11 +2248,21 @@
       <c r="I43" t="s">
         <v>7</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <v>247.78</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v>43,0,0,247.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1849,11 +2290,21 @@
       <c r="I44" t="s">
         <v>7</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <v>248.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>44,0,0,248.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1881,11 +2332,21 @@
       <c r="I45" t="s">
         <v>7</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1">
         <v>249.82</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v>45,0,0,249.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1913,11 +2374,21 @@
       <c r="I46" t="s">
         <v>7</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>250.84</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="0"/>
+        <v>46,0,0,250.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1945,11 +2416,21 @@
       <c r="I47" t="s">
         <v>7</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>251.86</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="0"/>
+        <v>47,0,0,251.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1977,11 +2458,21 @@
       <c r="I48" t="s">
         <v>7</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>252.88</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="0"/>
+        <v>48,0,0,252.88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2009,11 +2500,21 @@
       <c r="I49" t="s">
         <v>7</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <v>253.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="0"/>
+        <v>49,0,0,253.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2041,11 +2542,21 @@
       <c r="I50" t="s">
         <v>7</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1">
         <v>254.92</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v>50,0,0,254.92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2073,11 +2584,21 @@
       <c r="I51" t="s">
         <v>7</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1">
         <v>298.26</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v>60,0,0,298.26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2105,11 +2626,21 @@
       <c r="I52" t="s">
         <v>7</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>341.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v>70,0,0,341.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2137,11 +2668,21 @@
       <c r="I53" t="s">
         <v>7</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1">
         <v>384.94</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="0"/>
+        <v>80,0,0,384.94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2169,11 +2710,21 @@
       <c r="I54" t="s">
         <v>7</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="1">
         <v>428.28</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="0"/>
+        <v>90,0,0,428.28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2201,11 +2752,21 @@
       <c r="I55" t="s">
         <v>7</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="1">
         <v>471.62</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="0"/>
+        <v>100,0,0,471.62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2233,11 +2794,21 @@
       <c r="I56" t="s">
         <v>7</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1">
         <v>1179.04</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="0"/>
+        <v>250,0,0,1179.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2265,8 +2836,18 @@
       <c r="I57" t="s">
         <v>7</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="1">
         <v>2294.35</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="0"/>
+        <v>500,0,0,2294.35</v>
       </c>
     </row>
   </sheetData>
@@ -2276,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8639B9DC-ACA9-4333-85CA-11526A042886}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65:L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,7 +2877,7 @@
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2327,8 +2908,15 @@
       <c r="J1">
         <v>23.57</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1">
+        <v>23.57</v>
+      </c>
+      <c r="L1">
+        <f>J1-K1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2359,8 +2947,15 @@
       <c r="J2">
         <v>41.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L57" si="0">J2-K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2391,8 +2986,15 @@
       <c r="J3">
         <v>58.14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <v>58.14</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2423,8 +3025,15 @@
       <c r="J4">
         <v>74.86</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <v>74.86</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2455,8 +3064,15 @@
       <c r="J5">
         <v>82.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>82.84</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2487,8 +3103,15 @@
       <c r="J6">
         <v>89.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>89.21</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2519,8 +3142,15 @@
       <c r="J7">
         <v>102.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>102.99</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2551,8 +3181,15 @@
       <c r="J8">
         <v>112.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <v>112.16</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2583,8 +3220,15 @@
       <c r="J9">
         <v>115.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>115.98</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2615,8 +3259,15 @@
       <c r="J10">
         <v>121.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <v>121.08</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2647,8 +3298,15 @@
       <c r="J11">
         <v>128.30000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2679,8 +3337,15 @@
       <c r="J12">
         <v>135.52000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <v>135.52000000000001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2711,8 +3376,15 @@
       <c r="J13">
         <v>142.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>142.75</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2743,8 +3415,15 @@
       <c r="J14">
         <v>149.97</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>149.97</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2775,8 +3454,15 @@
       <c r="J15">
         <v>157.19</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <v>157.19</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2807,8 +3493,15 @@
       <c r="J16">
         <v>164.42</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <v>164.42</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2839,8 +3532,15 @@
       <c r="J17">
         <v>171.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1">
+        <v>171.64</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2871,8 +3571,15 @@
       <c r="J18">
         <v>178.86</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1">
+        <v>178.86</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2903,8 +3610,15 @@
       <c r="J19">
         <v>186.09</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1">
+        <v>186.09</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2935,8 +3649,15 @@
       <c r="J20">
         <v>193.31</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1">
+        <v>193.31</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2967,8 +3688,15 @@
       <c r="J21">
         <v>200.53</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <v>200.53</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2999,8 +3727,15 @@
       <c r="J22">
         <v>207.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <v>207.75</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3031,8 +3766,15 @@
       <c r="J23">
         <v>214.98</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <v>214.98</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3063,8 +3805,15 @@
       <c r="J24">
         <v>222.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1">
+        <v>222.2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3095,8 +3844,15 @@
       <c r="J25">
         <v>229.42</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
+        <v>229.42</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3127,8 +3883,15 @@
       <c r="J26">
         <v>230.44</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="1">
+        <v>230.44</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3159,8 +3922,15 @@
       <c r="J27">
         <v>231.46</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="1">
+        <v>231.46</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3191,8 +3961,15 @@
       <c r="J28">
         <v>232.48</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="1">
+        <v>232.48</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3223,8 +4000,15 @@
       <c r="J29">
         <v>233.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1">
+        <v>233.5</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3255,8 +4039,15 @@
       <c r="J30">
         <v>234.52</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1">
+        <v>234.52</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3287,8 +4078,15 @@
       <c r="J31">
         <v>235.54</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="1">
+        <v>235.54</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -3319,8 +4117,15 @@
       <c r="J32">
         <v>236.56</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="1">
+        <v>236.56</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3351,8 +4156,15 @@
       <c r="J33">
         <v>237.58</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="1">
+        <v>237.58</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3383,8 +4195,15 @@
       <c r="J34">
         <v>238.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="1">
+        <v>238.6</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3415,8 +4234,15 @@
       <c r="J35">
         <v>239.62</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="1">
+        <v>239.62</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3447,8 +4273,15 @@
       <c r="J36">
         <v>240.64</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="1">
+        <v>240.64</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3479,8 +4312,15 @@
       <c r="J37">
         <v>241.66</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="1">
+        <v>241.66</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -3511,8 +4351,15 @@
       <c r="J38">
         <v>242.68</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="1">
+        <v>242.68</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -3543,8 +4390,15 @@
       <c r="J39">
         <v>243.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="1">
+        <v>243.7</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3575,8 +4429,15 @@
       <c r="J40">
         <v>244.72</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="1">
+        <v>244.72</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3607,8 +4468,15 @@
       <c r="J41">
         <v>245.74</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="1">
+        <v>245.74</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3639,8 +4507,15 @@
       <c r="J42">
         <v>246.76</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="1">
+        <v>246.76</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3671,8 +4546,15 @@
       <c r="J43">
         <v>247.78</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="1">
+        <v>247.78</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3703,8 +4585,15 @@
       <c r="J44">
         <v>248.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="1">
+        <v>248.8</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3735,8 +4624,15 @@
       <c r="J45">
         <v>249.82</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="1">
+        <v>249.82</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3767,8 +4663,15 @@
       <c r="J46">
         <v>250.84</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="1">
+        <v>250.84</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3799,8 +4702,15 @@
       <c r="J47">
         <v>251.86</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="1">
+        <v>251.86</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3831,8 +4741,15 @@
       <c r="J48">
         <v>252.88</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="1">
+        <v>252.88</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3863,8 +4780,15 @@
       <c r="J49">
         <v>253.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="1">
+        <v>253.9</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3895,8 +4819,15 @@
       <c r="J50">
         <v>254.92</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="1">
+        <v>254.92</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3927,8 +4858,15 @@
       <c r="J51">
         <v>298.26</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="1">
+        <v>298.26</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3959,8 +4897,15 @@
       <c r="J52">
         <v>341.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="1">
+        <v>341.6</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3991,8 +4936,15 @@
       <c r="J53">
         <v>384.94</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="1">
+        <v>384.94</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4023,8 +4975,15 @@
       <c r="J54">
         <v>428.28</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="1">
+        <v>428.28</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4055,8 +5014,15 @@
       <c r="J55">
         <v>471.62</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="1">
+        <v>471.62</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4087,8 +5053,15 @@
       <c r="J56">
         <v>1179.04</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="1">
+        <v>1179.04</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4119,8 +5092,15 @@
       <c r="J57">
         <v>2294.35</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="1">
+        <v>2294.35</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -4151,8 +5131,15 @@
       <c r="J65">
         <v>26.52</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="1">
+        <v>23.57</v>
+      </c>
+      <c r="L65">
+        <f>J65-K65</f>
+        <v>2.9499999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -4183,8 +5170,15 @@
       <c r="J66">
         <v>47.31</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L121" si="1">J66-K66</f>
+        <v>5.9000000000000057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -4215,8 +5209,15 @@
       <c r="J67">
         <v>66.98</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="1">
+        <v>58.14</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>8.8400000000000034</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -4247,8 +5248,15 @@
       <c r="J68">
         <v>86.65</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="1">
+        <v>74.86</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>11.790000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -4279,8 +5287,15 @@
       <c r="J69">
         <v>97.58</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="1">
+        <v>82.84</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>14.739999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -4311,8 +5326,15 @@
       <c r="J70">
         <v>106.9</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="1">
+        <v>89.21</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>17.690000000000012</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -4343,8 +5365,15 @@
       <c r="J71">
         <v>123.62</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="1">
+        <v>102.99</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>20.63000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -4375,8 +5404,15 @@
       <c r="J72">
         <v>135.74</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="1">
+        <v>112.16</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>23.580000000000013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -4407,8 +5443,15 @@
       <c r="J73">
         <v>142.51</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="1">
+        <v>115.98</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>26.529999999999987</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -4439,8 +5482,15 @@
       <c r="J74">
         <v>150.55000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="1">
+        <v>121.08</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>29.470000000000013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -4471,8 +5521,15 @@
       <c r="J75">
         <v>160.72</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="1">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>32.419999999999987</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -4503,8 +5560,15 @@
       <c r="J76">
         <v>170.89</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="1">
+        <v>135.52000000000001</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>35.369999999999976</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -4535,8 +5599,15 @@
       <c r="J77">
         <v>181.07</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="1">
+        <v>142.75</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>38.319999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -4567,8 +5638,15 @@
       <c r="J78">
         <v>191.24</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="1">
+        <v>149.97</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>41.27000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -4599,8 +5677,15 @@
       <c r="J79">
         <v>201.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="1">
+        <v>157.19</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>44.210000000000008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -4631,8 +5716,15 @@
       <c r="J80">
         <v>211.58</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="1">
+        <v>164.42</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>47.160000000000025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -4663,8 +5755,15 @@
       <c r="J81">
         <v>221.75</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="1">
+        <v>171.64</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>50.110000000000014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -4695,8 +5794,15 @@
       <c r="J82">
         <v>231.92</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="1">
+        <v>178.86</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>53.059999999999974</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -4727,8 +5833,15 @@
       <c r="J83">
         <v>242.09</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="1">
+        <v>186.09</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -4759,8 +5872,15 @@
       <c r="J84">
         <v>252.26</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="1">
+        <v>193.31</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>58.949999999999989</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -4791,8 +5911,15 @@
       <c r="J85">
         <v>262.43</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="1">
+        <v>200.53</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>61.900000000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -4823,8 +5950,15 @@
       <c r="J86">
         <v>272.60000000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="1">
+        <v>207.75</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>64.850000000000023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -4855,8 +5989,15 @@
       <c r="J87">
         <v>282.77</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="1">
+        <v>214.98</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>67.789999999999992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -4887,8 +6028,15 @@
       <c r="J88">
         <v>292.94</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="1">
+        <v>222.2</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>70.740000000000009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -4919,8 +6067,15 @@
       <c r="J89">
         <v>303.11</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="1">
+        <v>229.42</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>73.690000000000026</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -4951,8 +6106,15 @@
       <c r="J90">
         <v>307.08</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="1">
+        <v>230.44</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>76.639999999999986</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -4983,8 +6145,15 @@
       <c r="J91">
         <v>311.05</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="1">
+        <v>231.46</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>79.59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -5015,8 +6184,15 @@
       <c r="J92">
         <v>315.01</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="1">
+        <v>232.48</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -5047,8 +6223,15 @@
       <c r="J93">
         <v>318.98</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="1">
+        <v>233.5</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>85.480000000000018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -5079,8 +6262,15 @@
       <c r="J94">
         <v>322.95</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="1">
+        <v>234.52</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>88.429999999999978</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -5111,8 +6301,15 @@
       <c r="J95">
         <v>326.91000000000003</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="1">
+        <v>235.54</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>91.370000000000033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -5143,8 +6340,15 @@
       <c r="J96">
         <v>330.88</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="1">
+        <v>236.56</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>94.32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -5175,8 +6379,15 @@
       <c r="J97">
         <v>334.85</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="1">
+        <v>237.58</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>97.27000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -5207,8 +6418,15 @@
       <c r="J98">
         <v>338.82</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="1">
+        <v>238.6</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>100.22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -5239,8 +6457,15 @@
       <c r="J99">
         <v>342.78</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="1">
+        <v>239.62</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>103.15999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -5271,8 +6496,15 @@
       <c r="J100">
         <v>346.75</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="1">
+        <v>240.64</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>106.11000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -5303,8 +6535,15 @@
       <c r="J101">
         <v>350.72</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="1">
+        <v>241.66</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>109.06000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -5335,8 +6574,15 @@
       <c r="J102">
         <v>354.69</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="1">
+        <v>242.68</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>112.00999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -5367,8 +6613,15 @@
       <c r="J103">
         <v>358.65</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="1">
+        <v>243.7</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>114.94999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -5399,8 +6652,15 @@
       <c r="J104">
         <v>362.62</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="1">
+        <v>244.72</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -5431,8 +6691,15 @@
       <c r="J105">
         <v>366.59</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="1">
+        <v>245.74</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="1"/>
+        <v>120.84999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -5463,8 +6730,15 @@
       <c r="J106">
         <v>370.55</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="1">
+        <v>246.76</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>123.79000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -5495,8 +6769,15 @@
       <c r="J107">
         <v>374.52</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="1">
+        <v>247.78</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="1"/>
+        <v>126.73999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -5527,8 +6808,15 @@
       <c r="J108">
         <v>378.49</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="1">
+        <v>248.8</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="1"/>
+        <v>129.69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -5559,8 +6847,15 @@
       <c r="J109">
         <v>382.46</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="1">
+        <v>249.82</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="1"/>
+        <v>132.63999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -5591,8 +6886,15 @@
       <c r="J110">
         <v>386.42</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="1">
+        <v>250.84</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>135.58000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -5623,8 +6925,15 @@
       <c r="J111">
         <v>390.39</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="1">
+        <v>251.86</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>138.52999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -5655,8 +6964,15 @@
       <c r="J112">
         <v>394.36</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="1">
+        <v>252.88</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>141.48000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -5687,8 +7003,15 @@
       <c r="J113">
         <v>398.33</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="1">
+        <v>253.9</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="1"/>
+        <v>144.42999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -5719,8 +7042,15 @@
       <c r="J114">
         <v>402.29</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="1">
+        <v>254.92</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="1"/>
+        <v>147.37000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -5751,8 +7081,15 @@
       <c r="J115">
         <v>475.11</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="1">
+        <v>298.26</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="1"/>
+        <v>176.85000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -5783,8 +7120,15 @@
       <c r="J116">
         <v>547.91999999999996</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="1">
+        <v>341.6</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="1"/>
+        <v>206.31999999999994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -5815,8 +7159,15 @@
       <c r="J117">
         <v>620.74</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="1">
+        <v>384.94</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="1"/>
+        <v>235.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -5847,8 +7198,15 @@
       <c r="J118">
         <v>693.56</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="1">
+        <v>428.28</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="1"/>
+        <v>265.27999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -5879,8 +7237,15 @@
       <c r="J119">
         <v>766.37</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="1">
+        <v>471.62</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="1"/>
+        <v>294.75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -5911,8 +7276,15 @@
       <c r="J120">
         <v>1915.93</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="1">
+        <v>1179.04</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="1"/>
+        <v>736.8900000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -5942,6 +7314,13 @@
       </c>
       <c r="J121">
         <v>3768.12</v>
+      </c>
+      <c r="K121" s="1">
+        <v>2294.35</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="1"/>
+        <v>1473.77</v>
       </c>
     </row>
   </sheetData>
@@ -5953,8 +7332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A6172C-1C0F-4DB1-8032-E70C6304942F}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:J118"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,7 +7341,7 @@
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
@@ -9628,7 +11007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE93871D-2666-457B-88FF-925CCB670D28}">
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
